--- a/src/test/resources/Run_Manager_Latest.xlsx
+++ b/src/test/resources/Run_Manager_Latest.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IntellijWorkspace\NHC\src\test\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IntellijWorkspace\NHC\EJAR\NHC_Internal\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5823274-A8DC-4F14-8445-68D046B788DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{235BCAB6-92BB-41A2-B99C-991D68AFFEFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SuiteDetails" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">SuiteDetails!$A$1:$L$37</definedName>
   </definedNames>
-  <calcPr calcId="0" iterateDelta="1E-4"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -312,469 +312,469 @@
     <t>التوكيل</t>
   </si>
   <si>
+    <t>Module 4</t>
+  </si>
+  <si>
+    <t>Module 5</t>
+  </si>
+  <si>
+    <t>Module 1</t>
+  </si>
+  <si>
+    <t>Recharge Wallet Feature</t>
+  </si>
+  <si>
+    <t>chargeWalletLesser</t>
+  </si>
+  <si>
+    <t>UserDetails~Lesser</t>
+  </si>
+  <si>
+    <t>TC_2</t>
+  </si>
+  <si>
+    <t>chargeWalletTenant</t>
+  </si>
+  <si>
+    <t>UserDetails~Tenant</t>
+  </si>
+  <si>
+    <t>TC_3</t>
+  </si>
+  <si>
+    <t>chargeWalletBOManager</t>
+  </si>
+  <si>
+    <t>UserDetails~BOManager</t>
+  </si>
+  <si>
+    <t>TC_4</t>
+  </si>
+  <si>
+    <t>addIbanAndChargeWalletBOManager</t>
+  </si>
+  <si>
+    <t>UserDetails~BOManagerNew</t>
+  </si>
+  <si>
+    <t>TC_5</t>
+  </si>
+  <si>
+    <t>addIbanAndChargeWalletLesser</t>
+  </si>
+  <si>
+    <t>UserDetails~LesserNew</t>
+  </si>
+  <si>
+    <t>TC_6</t>
+  </si>
+  <si>
+    <t>addIbanAndChargeWalletTenant</t>
+  </si>
+  <si>
+    <t>UserDetails~TenantNew</t>
+  </si>
+  <si>
+    <t>TC_7</t>
+  </si>
+  <si>
+    <t>Valid</t>
+  </si>
+  <si>
+    <t>tenant_a1</t>
+  </si>
+  <si>
+    <t>Lesser</t>
+  </si>
+  <si>
+    <t>lessor_a1</t>
+  </si>
+  <si>
+    <t>Tenant</t>
+  </si>
+  <si>
+    <t>BOManager</t>
+  </si>
+  <si>
+    <t>BOManagerNew</t>
+  </si>
+  <si>
+    <t>LesserNew</t>
+  </si>
+  <si>
+    <t>lessor_a123</t>
+  </si>
+  <si>
+    <t>TenantNew</t>
+  </si>
+  <si>
+    <t>tenant_test4</t>
+  </si>
+  <si>
+    <t>Add Property Including lessor Feature</t>
+  </si>
+  <si>
+    <t>Add Property Valid – AddProperty Details</t>
+  </si>
+  <si>
+    <t>AddProperty Including Lessor</t>
+  </si>
+  <si>
+    <t>addPropertyIncludingLessor</t>
+  </si>
+  <si>
+    <t>AddPropertyDetails~ValidProperty</t>
+  </si>
+  <si>
+    <t>Upoald Attachment Related To Property</t>
+  </si>
+  <si>
+    <t>uploadPropertyAttachment</t>
+  </si>
+  <si>
+    <t>Upload Over Size File</t>
+  </si>
+  <si>
+    <t>uploadOverSizeFileAttachment</t>
+  </si>
+  <si>
+    <t>Ownership_Document_Type</t>
+  </si>
+  <si>
+    <t>Issued-Date</t>
+  </si>
+  <si>
+    <t>Ownership_Reference</t>
+  </si>
+  <si>
+    <t>National_Id</t>
+  </si>
+  <si>
+    <t>Date_Of_Birth</t>
+  </si>
+  <si>
+    <t>Phone_Number</t>
+  </si>
+  <si>
+    <t>Region</t>
+  </si>
+  <si>
+    <t>Property_Type</t>
+  </si>
+  <si>
+    <t>Property_Usage</t>
+  </si>
+  <si>
+    <t>Property_Number</t>
+  </si>
+  <si>
+    <t>Total_Floors</t>
+  </si>
+  <si>
+    <t>Units_Per_Floor</t>
+  </si>
+  <si>
+    <t>Property_Name</t>
+  </si>
+  <si>
+    <t>Postal_Code</t>
+  </si>
+  <si>
+    <t>Building_Number</t>
+  </si>
+  <si>
+    <t>Additional_Number</t>
+  </si>
+  <si>
+    <t>Unit_Number</t>
+  </si>
+  <si>
+    <t>Unit_Type</t>
+  </si>
+  <si>
+    <t>Floor_Number</t>
+  </si>
+  <si>
+    <t>Area</t>
+  </si>
+  <si>
+    <t>Number_Of_Rooms</t>
+  </si>
+  <si>
+    <t>ValidProperty</t>
+  </si>
+  <si>
+    <t>صك ملكية ورقي</t>
+  </si>
+  <si>
+    <t>2023-01-01</t>
+  </si>
+  <si>
+    <t>563333346</t>
+  </si>
+  <si>
+    <t>الرياض</t>
+  </si>
+  <si>
+    <t>عمارة</t>
+  </si>
+  <si>
+    <t>سكن عائلات</t>
+  </si>
+  <si>
+    <t>1223312</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>12233</t>
+  </si>
+  <si>
+    <t>23433</t>
+  </si>
+  <si>
+    <t>شقَّة</t>
+  </si>
+  <si>
+    <t>12333</t>
+  </si>
+  <si>
+    <t>1000</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>Residential Contract</t>
+  </si>
+  <si>
+    <t>Navigate to Add Residential Contract Page</t>
+  </si>
+  <si>
+    <t>Verify BO officer able to Navigate to Add Residential Contract page.</t>
+  </si>
+  <si>
+    <t>verifyBOOfficerNavigationToResidentialContractPage</t>
+  </si>
+  <si>
+    <t>AddResidentialContract~ResidentialContract</t>
+  </si>
+  <si>
+    <t>Add new residential contract</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Create new residential contract for duration of more than 3 months </t>
+  </si>
+  <si>
+    <t>addNewResidentialContractWithDurationMoreThanThreeMonths</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Create new residential contract for duration of less than 3 months </t>
+  </si>
+  <si>
+    <t>addNewResidentialContractWithDurationLessThanThreeMonths</t>
+  </si>
+  <si>
+    <t>Approve residential contract</t>
+  </si>
+  <si>
+    <t xml:space="preserve">As a lessor approve the created contract from contracts page </t>
+  </si>
+  <si>
+    <t>approveContractFromLesser</t>
+  </si>
+  <si>
+    <t>AddResidentialContract~ApproveContractLesser</t>
+  </si>
+  <si>
+    <t xml:space="preserve">As a tenant approve the created contract from contracts page </t>
+  </si>
+  <si>
+    <t>approveContractFromTenant</t>
+  </si>
+  <si>
+    <t>AddResidentialContract~ApproveContractTenant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify contract status is changed to REGISTERED </t>
+  </si>
+  <si>
+    <t xml:space="preserve">As a BO manager, verify the contract status is changed to REGISTERED </t>
+  </si>
+  <si>
+    <t>verifyContractStatusIsRegisteredAsBoManager</t>
+  </si>
+  <si>
+    <t>ResidentialContract</t>
+  </si>
+  <si>
+    <t>ApproveContractLesser</t>
+  </si>
+  <si>
+    <t>ApproveContractTenant</t>
+  </si>
+  <si>
+    <t>TenantID</t>
+  </si>
+  <si>
+    <t>TenantDOB</t>
+  </si>
+  <si>
+    <t>ContractNumber(&lt;3 Months)</t>
+  </si>
+  <si>
+    <t>ContractNumber(&gt;3 months)</t>
+  </si>
+  <si>
+    <t>14000101</t>
+  </si>
+  <si>
+    <t>D68WFA3KHN2F</t>
+  </si>
+  <si>
+    <t>BO_AutomationTest12</t>
+  </si>
+  <si>
+    <t>1-02346</t>
+  </si>
+  <si>
+    <t>Recharge wallet</t>
+  </si>
+  <si>
+    <t>AutomationAman</t>
+  </si>
+  <si>
+    <t>1098789098</t>
+  </si>
+  <si>
+    <t>1445-05-24</t>
+  </si>
+  <si>
+    <t>1000211100</t>
+  </si>
+  <si>
+    <t>عمارة اوتوماشن 60</t>
+  </si>
+  <si>
+    <t>10565423790</t>
+  </si>
+  <si>
+    <t>TC_8</t>
+  </si>
+  <si>
+    <t>TC_9</t>
+  </si>
+  <si>
+    <t>Add new Commercial contract</t>
+  </si>
+  <si>
+    <t>Approve Commercial contract</t>
+  </si>
+  <si>
+    <t>Approve  Commercial contract</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Commercial Contract</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Create new Commercial contract for duration of geather than 3 months </t>
+  </si>
+  <si>
+    <t>addCommercialContract</t>
+  </si>
+  <si>
+    <t>AddCommercialContract</t>
+  </si>
+  <si>
+    <t>ApproveCommercialContractAsLesser</t>
+  </si>
+  <si>
+    <t>ApproveCommercialContractAsTenant</t>
+  </si>
+  <si>
+    <t>AddCommercialContract~AddCommercialContract</t>
+  </si>
+  <si>
+    <t>AddCommercialContract~ApproveCommercialContractAsLesser</t>
+  </si>
+  <si>
+    <t>AddCommercialContract~ApproveCommercialContractAsTenant</t>
+  </si>
+  <si>
+    <t>BO_AutomationTest3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1229999999  </t>
+  </si>
+  <si>
+    <t>bo_manager_a3</t>
+  </si>
+  <si>
+    <t>10253012587</t>
+  </si>
+  <si>
+    <t>Recharge Wallet Module</t>
+  </si>
+  <si>
+    <t>Contract Module</t>
+  </si>
+  <si>
+    <t>Add Proprety Module</t>
+  </si>
+  <si>
+    <t>Login Module</t>
+  </si>
+  <si>
+    <t>Registration Module</t>
+  </si>
+  <si>
+    <t>Module 6</t>
+  </si>
+  <si>
+    <t>Ejar_Registration_R1</t>
+  </si>
+  <si>
+    <t>Ejaz_Login_R1</t>
+  </si>
+  <si>
+    <t>Ejar_Add Proprety_R1</t>
+  </si>
+  <si>
+    <t>Ejar_Residential Contract_R1</t>
+  </si>
+  <si>
+    <t>Ejar_Recharge Wallet_R1</t>
+  </si>
+  <si>
+    <t>Ejar_Recharge Wallet_R2</t>
+  </si>
+  <si>
+    <t>Recharge wallet as a lessor</t>
+  </si>
+  <si>
+    <t>Recharge wallet as a tenant</t>
+  </si>
+  <si>
+    <t>Recharge wallet as a BO manager</t>
+  </si>
+  <si>
+    <t>Add IBAN and charge wallet as BO manager</t>
+  </si>
+  <si>
+    <t>Add IBAN and charge wallet as lessor</t>
+  </si>
+  <si>
+    <t>Add IBAN and charge wallet as tenant</t>
+  </si>
+  <si>
+    <t>19058312543</t>
+  </si>
+  <si>
+    <t>7201004346</t>
+  </si>
+  <si>
     <t>Yes</t>
-  </si>
-  <si>
-    <t>Module 4</t>
-  </si>
-  <si>
-    <t>Module 5</t>
-  </si>
-  <si>
-    <t>Module 1</t>
-  </si>
-  <si>
-    <t>Recharge Wallet Feature</t>
-  </si>
-  <si>
-    <t>chargeWalletLesser</t>
-  </si>
-  <si>
-    <t>UserDetails~Lesser</t>
-  </si>
-  <si>
-    <t>TC_2</t>
-  </si>
-  <si>
-    <t>chargeWalletTenant</t>
-  </si>
-  <si>
-    <t>UserDetails~Tenant</t>
-  </si>
-  <si>
-    <t>TC_3</t>
-  </si>
-  <si>
-    <t>chargeWalletBOManager</t>
-  </si>
-  <si>
-    <t>UserDetails~BOManager</t>
-  </si>
-  <si>
-    <t>TC_4</t>
-  </si>
-  <si>
-    <t>addIbanAndChargeWalletBOManager</t>
-  </si>
-  <si>
-    <t>UserDetails~BOManagerNew</t>
-  </si>
-  <si>
-    <t>TC_5</t>
-  </si>
-  <si>
-    <t>addIbanAndChargeWalletLesser</t>
-  </si>
-  <si>
-    <t>UserDetails~LesserNew</t>
-  </si>
-  <si>
-    <t>TC_6</t>
-  </si>
-  <si>
-    <t>addIbanAndChargeWalletTenant</t>
-  </si>
-  <si>
-    <t>UserDetails~TenantNew</t>
-  </si>
-  <si>
-    <t>TC_7</t>
-  </si>
-  <si>
-    <t>Valid</t>
-  </si>
-  <si>
-    <t>tenant_a1</t>
-  </si>
-  <si>
-    <t>Lesser</t>
-  </si>
-  <si>
-    <t>lessor_a1</t>
-  </si>
-  <si>
-    <t>Tenant</t>
-  </si>
-  <si>
-    <t>BOManager</t>
-  </si>
-  <si>
-    <t>BOManagerNew</t>
-  </si>
-  <si>
-    <t>LesserNew</t>
-  </si>
-  <si>
-    <t>lessor_a123</t>
-  </si>
-  <si>
-    <t>TenantNew</t>
-  </si>
-  <si>
-    <t>tenant_test4</t>
-  </si>
-  <si>
-    <t>Add Property Including lessor Feature</t>
-  </si>
-  <si>
-    <t>Add Property Valid – AddProperty Details</t>
-  </si>
-  <si>
-    <t>AddProperty Including Lessor</t>
-  </si>
-  <si>
-    <t>addPropertyIncludingLessor</t>
-  </si>
-  <si>
-    <t>AddPropertyDetails~ValidProperty</t>
-  </si>
-  <si>
-    <t>Upoald Attachment Related To Property</t>
-  </si>
-  <si>
-    <t>uploadPropertyAttachment</t>
-  </si>
-  <si>
-    <t>Upload Over Size File</t>
-  </si>
-  <si>
-    <t>uploadOverSizeFileAttachment</t>
-  </si>
-  <si>
-    <t>Ownership_Document_Type</t>
-  </si>
-  <si>
-    <t>Issued-Date</t>
-  </si>
-  <si>
-    <t>Ownership_Reference</t>
-  </si>
-  <si>
-    <t>National_Id</t>
-  </si>
-  <si>
-    <t>Date_Of_Birth</t>
-  </si>
-  <si>
-    <t>Phone_Number</t>
-  </si>
-  <si>
-    <t>Region</t>
-  </si>
-  <si>
-    <t>Property_Type</t>
-  </si>
-  <si>
-    <t>Property_Usage</t>
-  </si>
-  <si>
-    <t>Property_Number</t>
-  </si>
-  <si>
-    <t>Total_Floors</t>
-  </si>
-  <si>
-    <t>Units_Per_Floor</t>
-  </si>
-  <si>
-    <t>Property_Name</t>
-  </si>
-  <si>
-    <t>Postal_Code</t>
-  </si>
-  <si>
-    <t>Building_Number</t>
-  </si>
-  <si>
-    <t>Additional_Number</t>
-  </si>
-  <si>
-    <t>Unit_Number</t>
-  </si>
-  <si>
-    <t>Unit_Type</t>
-  </si>
-  <si>
-    <t>Floor_Number</t>
-  </si>
-  <si>
-    <t>Area</t>
-  </si>
-  <si>
-    <t>Number_Of_Rooms</t>
-  </si>
-  <si>
-    <t>ValidProperty</t>
-  </si>
-  <si>
-    <t>صك ملكية ورقي</t>
-  </si>
-  <si>
-    <t>2023-01-01</t>
-  </si>
-  <si>
-    <t>563333346</t>
-  </si>
-  <si>
-    <t>الرياض</t>
-  </si>
-  <si>
-    <t>عمارة</t>
-  </si>
-  <si>
-    <t>سكن عائلات</t>
-  </si>
-  <si>
-    <t>1223312</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>12233</t>
-  </si>
-  <si>
-    <t>23433</t>
-  </si>
-  <si>
-    <t>شقَّة</t>
-  </si>
-  <si>
-    <t>12333</t>
-  </si>
-  <si>
-    <t>1000</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>Residential Contract</t>
-  </si>
-  <si>
-    <t>Navigate to Add Residential Contract Page</t>
-  </si>
-  <si>
-    <t>Verify BO officer able to Navigate to Add Residential Contract page.</t>
-  </si>
-  <si>
-    <t>verifyBOOfficerNavigationToResidentialContractPage</t>
-  </si>
-  <si>
-    <t>AddResidentialContract~ResidentialContract</t>
-  </si>
-  <si>
-    <t>Add new residential contract</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Create new residential contract for duration of more than 3 months </t>
-  </si>
-  <si>
-    <t>addNewResidentialContractWithDurationMoreThanThreeMonths</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Create new residential contract for duration of less than 3 months </t>
-  </si>
-  <si>
-    <t>addNewResidentialContractWithDurationLessThanThreeMonths</t>
-  </si>
-  <si>
-    <t>Approve residential contract</t>
-  </si>
-  <si>
-    <t xml:space="preserve">As a lessor approve the created contract from contracts page </t>
-  </si>
-  <si>
-    <t>approveContractFromLesser</t>
-  </si>
-  <si>
-    <t>AddResidentialContract~ApproveContractLesser</t>
-  </si>
-  <si>
-    <t xml:space="preserve">As a tenant approve the created contract from contracts page </t>
-  </si>
-  <si>
-    <t>approveContractFromTenant</t>
-  </si>
-  <si>
-    <t>AddResidentialContract~ApproveContractTenant</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Verify contract status is changed to REGISTERED </t>
-  </si>
-  <si>
-    <t xml:space="preserve">As a BO manager, verify the contract status is changed to REGISTERED </t>
-  </si>
-  <si>
-    <t>verifyContractStatusIsRegisteredAsBoManager</t>
-  </si>
-  <si>
-    <t>ResidentialContract</t>
-  </si>
-  <si>
-    <t>ApproveContractLesser</t>
-  </si>
-  <si>
-    <t>ApproveContractTenant</t>
-  </si>
-  <si>
-    <t>TenantID</t>
-  </si>
-  <si>
-    <t>TenantDOB</t>
-  </si>
-  <si>
-    <t>ContractNumber(&lt;3 Months)</t>
-  </si>
-  <si>
-    <t>ContractNumber(&gt;3 months)</t>
-  </si>
-  <si>
-    <t>14000101</t>
-  </si>
-  <si>
-    <t>D68WFA3KHN2F</t>
-  </si>
-  <si>
-    <t>BO_AutomationTest12</t>
-  </si>
-  <si>
-    <t>1-02346</t>
-  </si>
-  <si>
-    <t>Recharge wallet</t>
-  </si>
-  <si>
-    <t>AutomationAman</t>
-  </si>
-  <si>
-    <t>1098789098</t>
-  </si>
-  <si>
-    <t>1445-05-24</t>
-  </si>
-  <si>
-    <t>1000211100</t>
-  </si>
-  <si>
-    <t>عمارة اوتوماشن 60</t>
-  </si>
-  <si>
-    <t>10565423790</t>
-  </si>
-  <si>
-    <t>TC_8</t>
-  </si>
-  <si>
-    <t>TC_9</t>
-  </si>
-  <si>
-    <t>Add new Commercial contract</t>
-  </si>
-  <si>
-    <t>Approve Commercial contract</t>
-  </si>
-  <si>
-    <t>Approve  Commercial contract</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Commercial Contract</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Create new Commercial contract for duration of geather than 3 months </t>
-  </si>
-  <si>
-    <t>addCommercialContract</t>
-  </si>
-  <si>
-    <t>AddCommercialContract</t>
-  </si>
-  <si>
-    <t>ApproveCommercialContractAsLesser</t>
-  </si>
-  <si>
-    <t>ApproveCommercialContractAsTenant</t>
-  </si>
-  <si>
-    <t>AddCommercialContract~AddCommercialContract</t>
-  </si>
-  <si>
-    <t>AddCommercialContract~ApproveCommercialContractAsLesser</t>
-  </si>
-  <si>
-    <t>AddCommercialContract~ApproveCommercialContractAsTenant</t>
-  </si>
-  <si>
-    <t>BO_AutomationTest3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1229999999  </t>
-  </si>
-  <si>
-    <t>bo_manager_a3</t>
-  </si>
-  <si>
-    <t>10253012587</t>
-  </si>
-  <si>
-    <t>Recharge Wallet Module</t>
-  </si>
-  <si>
-    <t>Contract Module</t>
-  </si>
-  <si>
-    <t>Add Proprety Module</t>
-  </si>
-  <si>
-    <t>Login Module</t>
-  </si>
-  <si>
-    <t>Registration Module</t>
-  </si>
-  <si>
-    <t>Module 6</t>
-  </si>
-  <si>
-    <t>Ejar_Registration_R1</t>
-  </si>
-  <si>
-    <t>Ejaz_Login_R1</t>
-  </si>
-  <si>
-    <t>Ejar_Add Proprety_R1</t>
-  </si>
-  <si>
-    <t>Ejar_Residential Contract_R1</t>
-  </si>
-  <si>
-    <t>Ejar_Recharge Wallet_R1</t>
-  </si>
-  <si>
-    <t>Ejar_Recharge Wallet_R2</t>
-  </si>
-  <si>
-    <t>Recharge wallet as a lessor</t>
-  </si>
-  <si>
-    <t>Recharge wallet as a tenant</t>
-  </si>
-  <si>
-    <t>Recharge wallet as a BO manager</t>
-  </si>
-  <si>
-    <t>Add IBAN and charge wallet as BO manager</t>
-  </si>
-  <si>
-    <t>Add IBAN and charge wallet as lessor</t>
-  </si>
-  <si>
-    <t>Add IBAN and charge wallet as tenant</t>
-  </si>
-  <si>
-    <t>19058312543</t>
-  </si>
-  <si>
-    <t>7201004346</t>
   </si>
 </sst>
 </file>
@@ -1407,11 +1407,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L37"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="I8" sqref="I8"/>
+      <selection pane="bottomRight" activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1471,13 +1471,13 @@
     </row>
     <row r="2" spans="1:12" ht="19.2" x14ac:dyDescent="0.45">
       <c r="A2" s="15" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D2" s="16"/>
       <c r="E2" s="17"/>
@@ -1528,7 +1528,7 @@
         <v>15</v>
       </c>
       <c r="J3" s="23" t="s">
-        <v>94</v>
+        <v>45</v>
       </c>
       <c r="K3" s="2">
         <v>1</v>
@@ -1770,10 +1770,10 @@
         <v>32</v>
       </c>
       <c r="B10" s="16" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C10" s="16" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D10" s="16"/>
       <c r="E10" s="26"/>
@@ -1950,10 +1950,10 @@
         <v>68</v>
       </c>
       <c r="B15" s="16" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C15" s="16" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D15" s="16"/>
       <c r="E15" s="26"/>
@@ -1978,22 +1978,22 @@
         <v>14</v>
       </c>
       <c r="B16" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C16" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="D16" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="D16" s="2" t="s">
+      <c r="E16" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="E16" s="2" t="s">
+      <c r="F16" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="F16" s="2" t="s">
-        <v>132</v>
-      </c>
       <c r="G16" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H16" s="2" t="s">
         <v>14</v>
@@ -2016,22 +2016,22 @@
         <v>15</v>
       </c>
       <c r="B17" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C17" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="C17" s="2" t="s">
-        <v>129</v>
-      </c>
       <c r="D17" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="E17" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="E17" s="2" t="s">
-        <v>134</v>
-      </c>
       <c r="F17" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H17" s="2" t="s">
         <v>14</v>
@@ -2054,22 +2054,22 @@
         <v>16</v>
       </c>
       <c r="B18" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C18" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="C18" s="2" t="s">
-        <v>129</v>
-      </c>
       <c r="D18" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E18" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="E18" s="2" t="s">
-        <v>136</v>
-      </c>
       <c r="F18" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H18" s="2" t="s">
         <v>14</v>
@@ -2089,13 +2089,13 @@
     </row>
     <row r="19" spans="1:12" ht="19.2" x14ac:dyDescent="0.45">
       <c r="A19" s="15" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B19" s="16" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D19" s="16"/>
       <c r="E19" s="26"/>
@@ -2120,22 +2120,22 @@
         <v>17</v>
       </c>
       <c r="B20" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="C20" s="21" t="s">
         <v>173</v>
       </c>
-      <c r="C20" s="21" t="s">
+      <c r="D20" s="21" t="s">
         <v>174</v>
       </c>
-      <c r="D20" s="21" t="s">
+      <c r="E20" s="20" t="s">
         <v>175</v>
       </c>
-      <c r="E20" s="20" t="s">
+      <c r="F20" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="F20" s="2" t="s">
-        <v>177</v>
-      </c>
       <c r="G20" s="20" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H20" s="2" t="s">
         <v>14</v>
@@ -2158,22 +2158,22 @@
         <v>18</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C21" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="D21" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="D21" s="2" t="s">
+      <c r="E21" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="E21" s="2" t="s">
-        <v>180</v>
-      </c>
       <c r="F21" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H21" s="2" t="s">
         <v>14</v>
@@ -2182,7 +2182,7 @@
         <v>15</v>
       </c>
       <c r="J21" s="23" t="s">
-        <v>45</v>
+        <v>248</v>
       </c>
       <c r="K21" s="2">
         <v>1</v>
@@ -2196,22 +2196,22 @@
         <v>19</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D22" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="E22" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="E22" s="2" t="s">
-        <v>182</v>
-      </c>
       <c r="F22" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H22" s="2" t="s">
         <v>14</v>
@@ -2234,22 +2234,22 @@
         <v>20</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C23" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="D23" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="D23" s="2" t="s">
+      <c r="E23" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="E23" s="2" t="s">
+      <c r="F23" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="F23" s="2" t="s">
-        <v>186</v>
-      </c>
       <c r="G23" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="H23" s="2" t="s">
         <v>14</v>
@@ -2258,7 +2258,7 @@
         <v>15</v>
       </c>
       <c r="J23" s="23" t="s">
-        <v>45</v>
+        <v>248</v>
       </c>
       <c r="K23" s="2">
         <v>1</v>
@@ -2272,22 +2272,22 @@
         <v>21</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D24" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="E24" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="E24" s="2" t="s">
+      <c r="F24" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="F24" s="2" t="s">
-        <v>189</v>
-      </c>
       <c r="G24" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H24" s="2" t="s">
         <v>14</v>
@@ -2310,22 +2310,22 @@
         <v>22</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C25" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="D25" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="D25" s="2" t="s">
+      <c r="E25" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="E25" s="2" t="s">
-        <v>192</v>
-      </c>
       <c r="F25" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H25" s="2" t="s">
         <v>14</v>
@@ -2345,13 +2345,13 @@
     </row>
     <row r="26" spans="1:12" ht="19.2" x14ac:dyDescent="0.45">
       <c r="A26" s="15" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B26" s="16" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D26" s="16"/>
       <c r="E26" s="17"/>
@@ -2376,22 +2376,22 @@
         <v>23</v>
       </c>
       <c r="B27" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="E27" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="C27" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="E27" s="2" t="s">
+      <c r="F27" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="F27" s="2" t="s">
+      <c r="G27" s="2" t="s">
         <v>100</v>
-      </c>
-      <c r="G27" s="2" t="s">
-        <v>101</v>
       </c>
       <c r="H27" s="2" t="s">
         <v>14</v>
@@ -2414,22 +2414,22 @@
         <v>24</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E28" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F28" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="F28" s="2" t="s">
+      <c r="G28" s="2" t="s">
         <v>103</v>
-      </c>
-      <c r="G28" s="2" t="s">
-        <v>104</v>
       </c>
       <c r="H28" s="2" t="s">
         <v>14</v>
@@ -2452,22 +2452,22 @@
         <v>25</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E29" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="F29" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="F29" s="2" t="s">
+      <c r="G29" s="2" t="s">
         <v>106</v>
-      </c>
-      <c r="G29" s="2" t="s">
-        <v>107</v>
       </c>
       <c r="H29" s="2" t="s">
         <v>14</v>
@@ -2490,22 +2490,22 @@
         <v>26</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E30" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="F30" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="F30" s="2" t="s">
+      <c r="G30" s="2" t="s">
         <v>109</v>
-      </c>
-      <c r="G30" s="2" t="s">
-        <v>110</v>
       </c>
       <c r="H30" s="2" t="s">
         <v>14</v>
@@ -2528,22 +2528,22 @@
         <v>27</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E31" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="F31" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="F31" s="2" t="s">
+      <c r="G31" s="2" t="s">
         <v>112</v>
-      </c>
-      <c r="G31" s="2" t="s">
-        <v>113</v>
       </c>
       <c r="H31" s="2" t="s">
         <v>14</v>
@@ -2566,22 +2566,22 @@
         <v>28</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E32" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="F32" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="F32" s="2" t="s">
+      <c r="G32" s="2" t="s">
         <v>115</v>
-      </c>
-      <c r="G32" s="2" t="s">
-        <v>116</v>
       </c>
       <c r="H32" s="2" t="s">
         <v>14</v>
@@ -2601,13 +2601,13 @@
     </row>
     <row r="33" spans="1:12" ht="19.2" x14ac:dyDescent="0.45">
       <c r="A33" s="15" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B33" s="16" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D33" s="16"/>
       <c r="E33" s="17"/>
@@ -2632,22 +2632,22 @@
         <v>29</v>
       </c>
       <c r="B34" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="D34" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="C34" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="D34" s="2" t="s">
+      <c r="E34" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="E34" s="2" t="s">
-        <v>218</v>
-      </c>
       <c r="F34" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="H34" s="2" t="s">
         <v>14</v>
@@ -2670,22 +2670,22 @@
         <v>30</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D35" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="E35" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="E35" s="2" t="s">
-        <v>185</v>
-      </c>
       <c r="F35" s="2" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="H35" s="2" t="s">
         <v>14</v>
@@ -2708,19 +2708,19 @@
         <v>31</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D36" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="E36" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="E36" s="2" t="s">
-        <v>188</v>
-      </c>
       <c r="F36" s="2" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="G36" s="2" t="s">
         <v>65</v>
@@ -2746,19 +2746,19 @@
         <v>32</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D37" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="E37" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="E37" s="2" t="s">
-        <v>192</v>
-      </c>
       <c r="F37" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="G37" s="2" t="s">
         <v>38</v>
@@ -2836,19 +2836,19 @@
         <v>48</v>
       </c>
       <c r="E1" s="22" t="s">
+        <v>195</v>
+      </c>
+      <c r="F1" s="22" t="s">
         <v>196</v>
       </c>
-      <c r="F1" s="22" t="s">
+      <c r="G1" s="4" t="s">
         <v>197</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="H1" s="4" t="s">
         <v>198</v>
       </c>
-      <c r="H1" s="4" t="s">
-        <v>199</v>
-      </c>
       <c r="I1" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
@@ -2910,38 +2910,38 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B5" s="7" t="s">
         <v>20</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>59</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
       <c r="I5" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B6" s="7" t="s">
         <v>20</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>59</v>
@@ -2950,19 +2950,19 @@
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
       <c r="H6" s="6" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="I6" s="2"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B7" s="7" t="s">
         <v>20</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>59</v>
@@ -2971,7 +2971,7 @@
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
       <c r="H7" s="6" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="I7" s="2"/>
     </row>
@@ -3054,7 +3054,7 @@
         <v>20</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>59</v>
@@ -3062,13 +3062,13 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B5" s="7" t="s">
         <v>20</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>59</v>
@@ -3076,13 +3076,13 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B6" s="7" t="s">
         <v>20</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>59</v>
@@ -3090,13 +3090,13 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B7" s="7" t="s">
         <v>20</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>59</v>
@@ -3104,13 +3104,13 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B8" s="7" t="s">
         <v>20</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>59</v>
@@ -3118,13 +3118,13 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B9" s="7" t="s">
         <v>20</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>50</v>
@@ -3132,13 +3132,13 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B10" s="7" t="s">
         <v>20</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>59</v>
@@ -3146,13 +3146,13 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B11" s="7" t="s">
         <v>20</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>59</v>
@@ -3184,8 +3184,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E930BB3-3A64-4BBB-B18F-A2552BF2C530}">
   <dimension ref="A1:L9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3251,7 +3251,7 @@
         <v>70</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E2" s="6" t="s">
         <v>26</v>
@@ -3263,7 +3263,7 @@
         <v>30</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>93</v>
@@ -3275,7 +3275,7 @@
         <v>50</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
@@ -3295,7 +3295,7 @@
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
       <c r="L3" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
@@ -3319,7 +3319,7 @@
         <v>50</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
@@ -3343,7 +3343,7 @@
         <v>50</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
@@ -3367,7 +3367,7 @@
         <v>50</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
@@ -3387,7 +3387,7 @@
       <c r="J7" s="2"/>
       <c r="K7" s="2"/>
       <c r="L7" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
@@ -3407,7 +3407,7 @@
       <c r="J8" s="2"/>
       <c r="K8" s="2"/>
       <c r="L8" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
@@ -3425,7 +3425,7 @@
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
       <c r="J9" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="K9" s="2" t="s">
         <v>59</v>
@@ -3484,123 +3484,123 @@
         <v>48</v>
       </c>
       <c r="E1" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="F1" s="9" t="s">
         <v>137</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="G1" s="9" t="s">
         <v>138</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="H1" s="9" t="s">
         <v>139</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="I1" s="9" t="s">
         <v>140</v>
       </c>
-      <c r="I1" s="9" t="s">
+      <c r="J1" s="9" t="s">
         <v>141</v>
       </c>
-      <c r="J1" s="9" t="s">
+      <c r="K1" s="9" t="s">
         <v>142</v>
       </c>
-      <c r="K1" s="9" t="s">
+      <c r="L1" s="9" t="s">
         <v>143</v>
       </c>
-      <c r="L1" s="9" t="s">
+      <c r="M1" s="9" t="s">
         <v>144</v>
       </c>
-      <c r="M1" s="9" t="s">
+      <c r="N1" s="9" t="s">
         <v>145</v>
       </c>
-      <c r="N1" s="9" t="s">
+      <c r="O1" s="9" t="s">
         <v>146</v>
       </c>
-      <c r="O1" s="9" t="s">
+      <c r="P1" s="9" t="s">
         <v>147</v>
       </c>
-      <c r="P1" s="9" t="s">
+      <c r="Q1" s="9" t="s">
         <v>148</v>
       </c>
-      <c r="Q1" s="9" t="s">
+      <c r="R1" s="9" t="s">
         <v>149</v>
       </c>
-      <c r="R1" s="9" t="s">
+      <c r="S1" s="9" t="s">
         <v>150</v>
       </c>
-      <c r="S1" s="9" t="s">
+      <c r="T1" s="9" t="s">
         <v>151</v>
       </c>
-      <c r="T1" s="9" t="s">
+      <c r="U1" s="9" t="s">
         <v>152</v>
       </c>
-      <c r="U1" s="9" t="s">
+      <c r="V1" s="9" t="s">
         <v>153</v>
       </c>
-      <c r="V1" s="9" t="s">
+      <c r="W1" s="9" t="s">
         <v>154</v>
       </c>
-      <c r="W1" s="9" t="s">
+      <c r="X1" s="9" t="s">
         <v>155</v>
       </c>
-      <c r="X1" s="9" t="s">
+      <c r="Y1" s="9" t="s">
         <v>156</v>
-      </c>
-      <c r="Y1" s="9" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B2" s="10" t="s">
         <v>20</v>
       </c>
       <c r="C2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D2" t="s">
         <v>59</v>
       </c>
       <c r="E2" s="11" t="s">
+        <v>158</v>
+      </c>
+      <c r="F2" s="11" t="s">
         <v>159</v>
       </c>
-      <c r="F2" s="11" t="s">
+      <c r="G2" s="11" t="s">
+        <v>202</v>
+      </c>
+      <c r="H2" s="11" t="s">
+        <v>207</v>
+      </c>
+      <c r="I2" s="11" t="s">
+        <v>206</v>
+      </c>
+      <c r="J2" s="11" t="s">
         <v>160</v>
       </c>
-      <c r="G2" s="11" t="s">
-        <v>203</v>
-      </c>
-      <c r="H2" s="11" t="s">
+      <c r="K2" s="11" t="s">
+        <v>161</v>
+      </c>
+      <c r="L2" s="11" t="s">
+        <v>162</v>
+      </c>
+      <c r="M2" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="N2" s="11" t="s">
+        <v>164</v>
+      </c>
+      <c r="O2" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="P2" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="Q2" s="11" t="s">
         <v>208</v>
       </c>
-      <c r="I2" s="11" t="s">
-        <v>207</v>
-      </c>
-      <c r="J2" s="11" t="s">
-        <v>161</v>
-      </c>
-      <c r="K2" s="11" t="s">
-        <v>162</v>
-      </c>
-      <c r="L2" s="11" t="s">
-        <v>163</v>
-      </c>
-      <c r="M2" s="11" t="s">
-        <v>164</v>
-      </c>
-      <c r="N2" s="11" t="s">
-        <v>165</v>
-      </c>
-      <c r="O2" s="11" t="s">
+      <c r="R2" s="11" t="s">
         <v>166</v>
-      </c>
-      <c r="P2" s="11" t="s">
-        <v>166</v>
-      </c>
-      <c r="Q2" s="11" t="s">
-        <v>209</v>
-      </c>
-      <c r="R2" s="11" t="s">
-        <v>167</v>
       </c>
       <c r="S2" s="11" t="s">
         <v>28</v>
@@ -3609,19 +3609,19 @@
         <v>28</v>
       </c>
       <c r="U2" s="11" t="s">
+        <v>167</v>
+      </c>
+      <c r="V2" s="11" t="s">
         <v>168</v>
       </c>
-      <c r="V2" s="11" t="s">
+      <c r="W2" s="11" t="s">
         <v>169</v>
       </c>
-      <c r="W2" s="11" t="s">
+      <c r="X2" s="11" t="s">
         <v>170</v>
       </c>
-      <c r="X2" s="11" t="s">
+      <c r="Y2" s="11" t="s">
         <v>171</v>
-      </c>
-      <c r="Y2" s="11" t="s">
-        <v>172</v>
       </c>
     </row>
   </sheetData>
@@ -3667,24 +3667,24 @@
         <v>48</v>
       </c>
       <c r="E1" s="22" t="s">
+        <v>195</v>
+      </c>
+      <c r="F1" s="22" t="s">
         <v>196</v>
       </c>
-      <c r="F1" s="22" t="s">
+      <c r="G1" s="4" t="s">
         <v>197</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="H1" s="4" t="s">
         <v>198</v>
       </c>
-      <c r="H1" s="4" t="s">
-        <v>199</v>
-      </c>
       <c r="I1" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>20</v>
@@ -3703,7 +3703,7 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>20</v>
@@ -3722,7 +3722,7 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>20</v>
@@ -3741,40 +3741,40 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B5" s="7" t="s">
         <v>20</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>59</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="G5" s="2"/>
       <c r="H5" s="2" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B6" s="7" t="s">
         <v>20</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>59</v>
@@ -3783,19 +3783,19 @@
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
       <c r="H6" s="6" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="I6" s="2"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B7" s="7" t="s">
         <v>20</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>59</v>
@@ -3804,19 +3804,19 @@
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
       <c r="H7" s="6" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="I7" s="2"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B8" s="7" t="s">
         <v>20</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>59</v>
@@ -3825,7 +3825,7 @@
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
       <c r="H8" s="6" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="I8" s="2"/>
     </row>

--- a/src/test/resources/Run_Manager_Latest.xlsx
+++ b/src/test/resources/Run_Manager_Latest.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IntellijWorkspace\NHC\EJAR\NHC_Internal\src\test\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\Automation_NHC_Projects\EJAR\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{235BCAB6-92BB-41A2-B99C-991D68AFFEFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F4A4F03-B720-4ADE-9C50-A5800154D2BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SuiteDetails" sheetId="1" r:id="rId1"/>
@@ -23,12 +23,12 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">SuiteDetails!$A$1:$L$37</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="0" iterateDelta="1E-4"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="553" uniqueCount="249">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="553" uniqueCount="248">
   <si>
     <t>P_Key</t>
   </si>
@@ -772,9 +772,6 @@
   </si>
   <si>
     <t>7201004346</t>
-  </si>
-  <si>
-    <t>Yes</t>
   </si>
 </sst>
 </file>
@@ -1408,10 +1405,10 @@
   <dimension ref="A1:L37"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="E23" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="J3" sqref="J3"/>
+      <selection pane="bottomRight" activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2182,7 +2179,7 @@
         <v>15</v>
       </c>
       <c r="J21" s="23" t="s">
-        <v>248</v>
+        <v>45</v>
       </c>
       <c r="K21" s="2">
         <v>1</v>
@@ -2258,7 +2255,7 @@
         <v>15</v>
       </c>
       <c r="J23" s="23" t="s">
-        <v>248</v>
+        <v>45</v>
       </c>
       <c r="K23" s="2">
         <v>1</v>
@@ -2993,7 +2990,7 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3185,7 +3182,7 @@
   <dimension ref="A1:L9"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
